--- a/medicine/Mort/Liste_des_cimetières_de_Québec/Liste_des_cimetières_de_Québec.xlsx
+++ b/medicine/Mort/Liste_des_cimetières_de_Québec/Liste_des_cimetières_de_Québec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_de_Qu%C3%A9bec</t>
+          <t>Liste_des_cimetières_de_Québec</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article donne une liste des cimetières de Québec.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_de_Qu%C3%A9bec</t>
+          <t>Liste_des_cimetières_de_Québec</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Cimetières catholiques
-Cimetière de Cap-Rouge
+          <t>Cimetières catholiques</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cimetière de Cap-Rouge
 Cimetière de l'Hôpital général de Québec
 Cimetière de Notre-Dame-de-l'Annonciation
 Cimetière Notre-Dame-de-Belmont
@@ -525,14 +542,7 @@
 Cimetière Saint-Louis-de-Courville
 Cimetière Saint-Michel-de-Sillery (Sillery)
 Cimetière Saint-Patrick
-Cimetière Fargy (Beauport)
-Cimetières protestants
-Cimetière Mount Hermon
-Cimetière Saint-Matthew
-Cimetières musulmans
-Cimetière du Centre culturel islamique de Québec (en construction)
-Cimetières juifs
-Cimetière Beth Israël Ohev Sholom</t>
+Cimetière Fargy (Beauport)</t>
         </is>
       </c>
     </row>
@@ -542,7 +552,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_de_Qu%C3%A9bec</t>
+          <t>Liste_des_cimetières_de_Québec</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -557,10 +567,121 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>En fonction</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cimetières protestants</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cimetière Mount Hermon
+Cimetière Saint-Matthew</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_de_Québec</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_de_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>En fonction</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cimetières musulmans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cimetière du Centre culturel islamique de Québec (en construction)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_de_Québec</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_de_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>En fonction</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cimetières juifs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cimetière Beth Israël Ohev Sholom</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_de_Québec</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_de_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Disparus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Cimetière de Gros-Pin
 Cimetière des Picotés
